--- a/url.xlsx
+++ b/url.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdymacuser/Desktop/works/project/py_capth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A19599-E5B9-1F46-847B-29809842E130}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EDB269-CC9B-0742-8E8B-14912641A5BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="0" windowWidth="27900" windowHeight="16940" xr2:uid="{498EDA38-CC0F-E24F-BBF1-D7581B6557B1}"/>
+    <workbookView xWindow="2060" yWindow="0" windowWidth="27900" windowHeight="16940" xr2:uid="{498EDA38-CC0F-E24F-BBF1-D7581B6557B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,959 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="239">
   <si>
     <t>トップページ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>元カラオケ居酒屋の古着屋〜本格フレンチの北千住散策〜</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1306</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディープな名店がたくさん！武蔵小山のアーケード商店街めぐり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2294/</t>
+  </si>
+  <si>
+    <t>朝早いほどいい !! 富ヶ谷で堪能するグルメな街めぐり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4958/</t>
+  </si>
+  <si>
+    <t>子供がいても、大人なお店にいきたい！ そんなパパママに捧げる不動前エリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/4947/</t>
+  </si>
+  <si>
+    <t>ついついハシゴしたくなる「“きほんのき”」なアメリカ古着の表参道ヴィンテージショップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/6402/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新ランニングの聖地？多摩川河川敷ラン後の二子玉川デート</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1287</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”ありのままの自然”だけでは追われない「等々力」の過ごし方</t>
+    <rPh sb="0" eb="2">
+      <t>シゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1298</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代女子が気付いた”普段使い”の東銀座の魅力。</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1463</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下町情緒あふれる谷根千エリアは自転車で街めぐり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4978/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>“おいしい”を誰に届ける？　好感度テイクアウトでめぐる代官山・恵比寿の街</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1626</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>忙しい時こそゆっくり過ごす、都会で堪能する「水辺時間」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2745</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無人改札を出た先にあるビストロへ…「松陰神社前」の寄り道方法</t>
+    <rPh sb="0" eb="1">
+      <t>デタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1290</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パン好きの聖地・自由が丘〜田園調布エリアをパン散歩</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/3036</t>
+  </si>
+  <si>
+    <t>じつは古着屋の宝庫。三茶さんぽでお気に入りの1着を探す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2347</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シティボーイ×ガールがブラ歩き、三軒茶屋の1日デートプラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/288</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地元の人気店「ピピネラ」店主が足しげく通う高円寺の名店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2588</t>
+  </si>
+  <si>
+    <t>パン屋さんらしからぬ風情を持つ実力派が揃う街・江古田で自然派パンめぐり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/4045/</t>
+  </si>
+  <si>
+    <t>わざわざ訪れたくなる飲み屋【Stock.Shop編集部おすすめの御徒町・蔵前界隈の過ごし方】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/4110</t>
+  </si>
+  <si>
+    <t>ハマる人はなかなか抜け出せない街・下北沢で食す「わかりやすいもの」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2748</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「PATH」「暮らしの店 黄魚」「365日」…奥渋で過ごすおしゃれな朝</t>
+    <rPh sb="0" eb="1">
+      <t>「</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「お風呂は心の洗濯よ！」ビールが飲める銭湯など代々木八幡の開運スポット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1260</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世田谷区・用賀でおもてなし。ヨガインストラクターが選ぶ気分の良いお店たち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/3427/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>午前中から始まる目黒川散歩…主張しないけど素敵なお店めぐり</t>
+    <rPh sb="0" eb="1">
+      <t>ハジマル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1328</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLASKAからスタート、深目黒〜中目黒をめぐるサイクルツアー（前編）</t>
+    <rPh sb="0" eb="4">
+      <t>フカメグロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1249</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世田谷のシベリア”深沢”を楽しみ尽くす。真の大人の女性の休日</t>
+    <rPh sb="0" eb="3">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1220</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都会派グルメプランナーの日比谷線リフレッシュスポットめぐり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/3332/</t>
+  </si>
+  <si>
+    <t>子供の心を忘れた大人に送る、東東京での休日の過ごし方。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2836</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中目黒〜淡島エリアの「アクセスが悪くても“わざわざ”通いたい店」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2868</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中目黒は目黒川さんぽだけじゃない！ジモト商店街「目黒銀座商店街」をぶらり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2358</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLASKAからスタート、深目黒～中目黒をめぐるサイクルツアー【後編】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1351</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食と野球への愛は人一倍！「豊前房」若大将とめぐる東山ネットワークストア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/3323</t>
+  </si>
+  <si>
+    <t>シティボーイ×ガールがブラ歩き、中目黒での1日デートプラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/332</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界に誇るカルチャーを発信！グローバルな風が吹く街・中野</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/3126</t>
+  </si>
+  <si>
+    <t>駒沢通りの立ち飲み屋「世田谷STAND」オーナーがめぐる等々力・上野毛の”本物”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2937</t>
+  </si>
+  <si>
+    <t>「リピートしてます！」喜ばれる手土産を求めて東急線沿線めぐり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/4242/</t>
+  </si>
+  <si>
+    <t>“世田谷線ラバー”30代女子がめぐる下高井戸ローカル散歩</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2309/</t>
+  </si>
+  <si>
+    <t>シティボーイ×シティガールにおすすめ、渋谷でまったりご飯デート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/308</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わざわざ訪れたくなる居酒屋【Stock.Shop編集部おすすめの三軒茶屋界隈の過ごし方】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/3652</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わざわざ訪れたくなる雑貨屋・花屋【Stock.Shop編集部おすすめの三軒茶屋界隈の過ごし方】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/3588</t>
+  </si>
+  <si>
+    <t>わざわざ訪れたくなるランチ【Stock.Shop編集部おすすめの三軒茶屋界隈の過ごし方】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/3960</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三軒茶屋からちょっと離れた粋な界隈で1日遊ぶなら?　シティボーイ×ガールのデートプラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/527</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下町情緒あふれる浅草〜蔵前エリアで見つけたモノたち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2751</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「古き良き時代にタイムスリップできる、歴史と文化を味わう三筋・鳥越。蔵前エリア</t>
+    <rPh sb="0" eb="1">
+      <t>フルキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1254</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わざわざ訪れたくなる雑貨屋【Stock.Shop編集部おすすめの蔵前・御徒町界隈の過ごし方】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/3978</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わざわざ訪れたくなるカフェ【Stock.Shop編集部おすすめの蔵前界隈の過ごし方】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/3991</t>
+  </si>
+  <si>
+    <t>わざわざ訪れたくなる小物店【Stock.Shop編集部おすすめの蔵前界隈の過ごし方】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/4102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「おやつ×2+古道具×1」で魅力がわかる? 国立市のめぐり方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1573</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暮らしの店「黄魚」店主が常連さんから教わった経堂での親子散歩</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2282</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方向音痴が歩く経堂は「烏山川緑道」「すずらん通り」の南北縦断がオススメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2566</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>“盛り付けて完成する器”で人気の「黄魚」店主がママ目線でめぐる経堂</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2649</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（ほぼ）直線移動だけ!! 方向音痴による吉祥寺ぶらり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1618</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井の頭恩賜公園だけじゃない！吉祥寺でくつろぎの街めぐり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/5015/</t>
+  </si>
+  <si>
+    <t>裏路地散策が楽しい、歴史を感じるのんびりな北千住時間（仮）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/4514/</t>
+  </si>
+  <si>
+    <t>わざわざ行く価値ありの千駄ヶ谷・北参道。おしゃれ人が集まる外さないお店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2496</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人情の街・葛飾で過ごすヨガインストラクターの癒しの休日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/3318</t>
+  </si>
+  <si>
+    <t>フラワースタイリストが案内する、多彩な店主たちが集う街・学芸大学で楽しむ休日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/5635/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感性が磨かれる学芸大学駅はフィルムカメラが吉？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4995/</t>
+  </si>
+  <si>
+    <t>朝からめぐりたい、学芸大学駅の異国情緒あふれる横顔</t>
+    <rPh sb="0" eb="1">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1365</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2時間あれば学芸大学へ。30代ママの“ちょうどいい”があふれた街</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1239</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう迷わない！「気の利く」贈り物は外苑前で決まり。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1580</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人気スタイリスト、亘つぐみさんが教えてくれたプライベートで外せないお店『奥渋篇』</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/5779/</t>
+  </si>
+  <si>
+    <t>元アンルートスタッフのスポーツモデルがめぐる“阿佐ヶ谷っぽい”お店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1324</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1個10円の肉団子や完売するおにぎり……カオスな十条に寛容の心を学ぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2337</t>
+  </si>
+  <si>
+    <t>週末の赤坂はいつもと違う雰囲気、港区おじさんの気ままな過ごし方</t>
+    <rPh sb="0" eb="2">
+      <t>アカサカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1205</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恵比寿の裏路地に息づく“感性くすぐる”コアなカルチャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/2285</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３歳の食いしん坊な男の子と楽しむ吉祥寺・西荻窪散歩</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/guide/1251</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ブルーパブ】東京都内で自家製クラフトビールが飲める人気ブルーパブ5選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4404</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銭湯? いやいや15時開店の食堂酒場「鳩乃湯」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4090</t>
+  </si>
+  <si>
+    <t>ロングテーブルで楽しむハイカラセット「LANTERNE 池尻大橋」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4027</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家庭料理×奈良県吉野の酒蔵・美吉野醸造の酒「養生餐 よきこときく」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4566</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">カウンター席だけのマイクロビストロで堪能「ウフ・マヨ（300円）」Pétanque（ペタンク） </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/5152/</t>
+  </si>
+  <si>
+    <t>【東京】ディープすぎる東京都内の飲み屋7選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/6045/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【東京】刺身の美味しい東京の和食居酒屋5選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/5860/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bean to Barチョコレート専門店が“火入れ”にこだわった新店をオープン「Minimal The Baking 代々木上原」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4538</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都内のコーヒースタンド特集！こだわりの珈琲専門店5選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4511</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>格闘技雑誌『KAMINOGE』編集長らが手掛ける“大人のたまり場”「HOLY SHIT」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4151</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「店内は４名様ずつ」一人一人に寄り添う経堂のパン屋さん「onkä（オンカ）」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/3387</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世田谷線の駅裏手にひっそり。元ハンバーガー屋シェフのベトナミーズスタンド「FANSIPAN」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/3574</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美味しい紅茶だけじゃない。生産者が繋がるプラットフォームを目指す「メゾン・フィヤージュ青山」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/1086</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京の個性派カフェ＆喫茶店3選！わざわざ行きたいコーヒー店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/913</t>
+  </si>
+  <si>
+    <t>シティガールが専門店を目指す!! 東京の紅茶専門店でほっこり休日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/926</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おしゃれ度が高い日本茶カフェ、シティボーイ×ガールのデートの正解はどのお店?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/857</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おひとりでも大丈夫なカフェ！吉祥寺・西荻窪のおしゃれ空間で自分だけのひと時を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/820</t>
+  </si>
+  <si>
+    <t>「パフェの細部までこだわりたい」代々木 上原・ビヤンネートルの姉妹店「FLOTO」はジェラート研究所</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/804</t>
+  </si>
+  <si>
+    <t>「シンボパン」「365日」「fig」など、一度は行きたい東京のパン屋さん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/460</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほんの少し、自分を甘やかしたい。「東京のスイーツ」Stock.Shop的おすすめ３選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/375</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入店可能は2人？ 夫婦が続けられるサイズにこだわったパン屋「関口ベーカリー」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4135/</t>
+  </si>
+  <si>
+    <t>代々木八幡のパン屋「365日」シェフ全面監修の“近未来都市型ベーカリー”「GREEN THUMB」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/5143/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">待望の再オープン！ カフェ「AUX BACCHANALES 東山」で食すパン・ド・ミ 十勝 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/5178/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やいのやいのと地元民が訪れるコーヒースタンドでカフェラテを「IRON COFFEE」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/3563/</t>
+  </si>
+  <si>
+    <t>“生活者のみならず、世界や社会にとってもWell（よい）”を届けるマーケット＆カフェ「imperfect表参道」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/5320/</t>
+  </si>
+  <si>
+    <t>コーヒーに合う和菓子で金賞も。家族で築く“お客様ファースト”の店「御生菓子司 いゝ島」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/5280/</t>
+  </si>
+  <si>
+    <t>【東京】サンドイッチが絶品！具沢山で美味しい人気店7選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/5694/</t>
+  </si>
+  <si>
+    <t>2児のママが営む地域に愛される焼き菓子店「yaskesunfood」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/5307/</t>
+  </si>
+  <si>
+    <t>【スパイスカレー】東京都内で人気のおすすめカレー店14選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4657</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グルメなシティボーイも納得のうまさ！東京で人気のカレー店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/1008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【トロケの台所・トマトラーメン】東京の洋食屋さんで真っ赤なスープに包まれたラーメンを!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/643</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ハトノーユ】池袋に飽きるのはまだ早い！路地裏で見つけた「大衆居酒屋×イタリアン」、不思議な店名の由来は「銭湯」にあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/436</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉祥寺グルメは“味自慢”のお店へ! ! 知っているだけで自慢できる隠れた名店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/492</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グルメなシティボーイ・シティガールも大満足！ 味が自慢のお店〜高円寺編〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/480</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【東京】フレンチを楽しめる都内のおすすめビストロ7選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/6485/</t>
+  </si>
+  <si>
+    <t>【東京】美味しいピザが食べられる東京都内のお店4選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/6212/</t>
+  </si>
+  <si>
+    <t>おしゃれなサボテン・多肉植物に出会える東京のグリーンショップ5選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4832</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【東京】暮らしを彩る食器・キッチン雑貨の揃うこだわり雑貨店7選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4471</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シティボーイ・シティガールが集まる、東京の『個性派』雑貨店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/534</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【コシラエル】1本数百円のビニール傘が大量生産される時代に“1点もの”の傘を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/317</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【エムピウの財布・ミッレフォッリエ】「次のヒット作が出なくて困ってる（笑）」ミッレフォッリエを作った一級建築士</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/666</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人だからできる「絵本の深読み」。BARとしても使える子どもの本専門店って?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/836</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【レコードショップ】今話題！東京都内のレコードショップ6選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4826</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【古本屋】都内でオススメの個性的な古本屋9選 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/5119</t>
+  </si>
+  <si>
+    <t>【東京】おしゃれでセンスの光る東京都内の花屋10選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/6427/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恵比寿に山小屋？アートと人をつなぐギャラリー「gallery and shop 山小屋」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/5868/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【東京】大人も子供も癒される絵本が買える本屋5選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/6352/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体や心が疲れた時に訪れたい！現代人の“駆け込み寺”「yes エルブメディシナル」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/6012/</t>
+  </si>
+  <si>
+    <t>中目黒のおしゃれなアイテムが揃う雑貨屋7選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/6082/</t>
+  </si>
+  <si>
+    <t>【東京】キャンプ用品が揃う東京のアウトドアショップ10選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/5954/</t>
+  </si>
+  <si>
+    <t>【文具】おしゃれな文具が揃う！東京都内の人気文房具店7選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/5230/</t>
+  </si>
+  <si>
+    <t>過去と現在と未来「又新 aratana」で広げたい織物でつくられた傘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/4159</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【東京】おしゃれで個性的なTシャツが買えるお店4選</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stockstock.shop/article/column/5783/</t>
+  </si>
+  <si>
     <t>https://stockstock.shop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アバウトページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://stockstock.shop/about</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -47,6 +985,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -81,10 +1022,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -98,11 +1065,53 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -420,44 +1429,1468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29FBA6D-5577-884E-B48A-C2530E3D8523}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B4" sqref="B4:C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="97.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1">
+      <c r="A1" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="15">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="21">
+      <c r="A3" s="15">
         <v>3</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21">
+      <c r="A4" s="15">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21">
+      <c r="A5" s="15">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21">
+      <c r="A6" s="15">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="15">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21">
+      <c r="A10" s="15">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="15">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21">
+      <c r="A14" s="15">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="21">
+      <c r="A16" s="15">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="15">
+        <v>17</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="21">
+      <c r="A18" s="15">
+        <v>18</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="15">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="15">
+        <v>20</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="15">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="15">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="21">
+      <c r="A23" s="15">
+        <v>23</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="15">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="15">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="15">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="21">
+      <c r="A27" s="15">
+        <v>27</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="15">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="15">
+        <v>29</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="15">
+        <v>30</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="15">
+        <v>31</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="15">
+        <v>32</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="21">
+      <c r="A33" s="15">
+        <v>33</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="15">
+        <v>34</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="15">
+        <v>35</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="21">
+      <c r="A36" s="15">
+        <v>36</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="21">
+      <c r="A37" s="15">
+        <v>37</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="21">
+      <c r="A38" s="15">
+        <v>38</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="15">
+        <v>39</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="15">
+        <v>40</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="15">
+        <v>41</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="21">
+      <c r="A42" s="15">
+        <v>42</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="15">
+        <v>43</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="15">
+        <v>44</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="15">
+        <v>45</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="15">
+        <v>46</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="15">
+        <v>47</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="15">
+        <v>48</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="15">
+        <v>49</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="15">
+        <v>50</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="15">
+        <v>51</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="15">
+        <v>52</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="21">
+      <c r="A53" s="15">
+        <v>53</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="21">
+      <c r="A54" s="15">
+        <v>54</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="15">
+        <v>55</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="15">
+        <v>56</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="21">
+      <c r="A57" s="15">
+        <v>57</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="21">
+      <c r="A58" s="15">
+        <v>58</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="15">
+        <v>59</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="15">
+        <v>60</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="15">
+        <v>61</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="21">
+      <c r="A62" s="15">
+        <v>62</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="15">
+        <v>63</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="15">
+        <v>64</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="15">
+        <v>65</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="15">
+        <v>66</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="15">
+        <v>67</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="21">
+      <c r="A68" s="15">
+        <v>68</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="21">
+      <c r="A69" s="15">
+        <v>69</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="21">
+      <c r="A70" s="15">
+        <v>70</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="21">
+      <c r="A71" s="15">
+        <v>71</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="21">
+      <c r="A72" s="15">
+        <v>72</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="21">
+      <c r="A73" s="15">
+        <v>73</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="21">
+      <c r="A74" s="15">
+        <v>74</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="21">
+      <c r="A75" s="15">
+        <v>75</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="21">
+      <c r="A76" s="15">
+        <v>76</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="21">
+      <c r="A77" s="15">
+        <v>77</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="21">
+      <c r="A78" s="15">
+        <v>78</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="21">
+      <c r="A79" s="15">
+        <v>79</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="21">
+      <c r="A80" s="15">
+        <v>80</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="21">
+      <c r="A81" s="15">
+        <v>81</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="21">
+      <c r="A82" s="15">
+        <v>82</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="21">
+      <c r="A83" s="15">
+        <v>83</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="21">
+      <c r="A84" s="15">
+        <v>84</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="21">
+      <c r="A85" s="15">
+        <v>85</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="21">
+      <c r="A86" s="15">
+        <v>86</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="21">
+      <c r="A87" s="15">
+        <v>87</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="21">
+      <c r="A88" s="15">
+        <v>88</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="21">
+      <c r="A89" s="15">
+        <v>89</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="21">
+      <c r="A90" s="15">
+        <v>90</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="21">
+      <c r="A91" s="15">
+        <v>91</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="21">
+      <c r="A92" s="15">
+        <v>92</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="21">
+      <c r="A93" s="15">
+        <v>93</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="21">
+      <c r="A94" s="15">
+        <v>94</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="21">
+      <c r="A95" s="15">
+        <v>95</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="21">
+      <c r="A96" s="15">
+        <v>96</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="21">
+      <c r="A97" s="15">
+        <v>97</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="21">
+      <c r="A98" s="15">
+        <v>98</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="42">
+      <c r="A99" s="15">
+        <v>99</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="21">
+      <c r="A100" s="15">
+        <v>100</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="21">
+      <c r="A101" s="15">
+        <v>101</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="21">
+      <c r="A102" s="15">
+        <v>102</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="21">
+      <c r="A103" s="15">
+        <v>103</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="21">
+      <c r="A104" s="15">
+        <v>104</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="21">
+      <c r="A105" s="15">
+        <v>105</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="21">
+      <c r="A106" s="15">
+        <v>106</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="21">
+      <c r="A107" s="15">
+        <v>107</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="21">
+      <c r="A108" s="15">
+        <v>108</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="21">
+      <c r="A109" s="15">
+        <v>109</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="21">
+      <c r="A110" s="15">
+        <v>110</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="21">
+      <c r="A111" s="15">
+        <v>111</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="21">
+      <c r="A112" s="15">
+        <v>112</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="21">
+      <c r="A113" s="15">
+        <v>113</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="21">
+      <c r="A114" s="15">
+        <v>114</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="21">
+      <c r="A115" s="15">
+        <v>115</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="21">
+      <c r="A116" s="15">
+        <v>116</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="21">
+      <c r="A117" s="15">
+        <v>117</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="21">
+      <c r="A118" s="15">
+        <v>118</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="21">
+      <c r="A119" s="15">
+        <v>119</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="21">
+      <c r="A120" s="15">
+        <v>120</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="4"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{23C94887-A798-C64C-A200-6B2681F0911C}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{C770F6BA-877D-B847-8819-66E0C0F8DD1D}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{E5F1D033-9D09-3443-82EB-BC6E7913DAA9}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{98F2F8F0-F238-0341-ABDC-54EEABECB95E}"/>
+    <hyperlink ref="C1" r:id="rId3" xr:uid="{23C94887-A798-C64C-A200-6B2681F0911C}"/>
+    <hyperlink ref="C120" r:id="rId4" xr:uid="{B0D314D4-EEAB-844D-BCF3-1A345C70F768}"/>
+    <hyperlink ref="C119" r:id="rId5" xr:uid="{5D9DCC7E-AB01-3240-AFD7-CB25490D0904}"/>
+    <hyperlink ref="C111" r:id="rId6" xr:uid="{A8449051-5999-E047-977F-40D3773ED509}"/>
+    <hyperlink ref="C118" r:id="rId7" xr:uid="{A4E5BB53-9941-C54A-8E46-52C0A2613D46}"/>
+    <hyperlink ref="C117" r:id="rId8" xr:uid="{6ED0C5FD-B798-E84B-8E14-6FB726EEDC3C}"/>
+    <hyperlink ref="C116" r:id="rId9" xr:uid="{9F5CCDD9-0EF5-4F4C-87EC-285A30E7DA99}"/>
+    <hyperlink ref="C115" r:id="rId10" xr:uid="{782D6761-0C7C-754A-8D0F-4185E5B962D6}"/>
+    <hyperlink ref="C114" r:id="rId11" xr:uid="{4AA35F6F-89EF-224F-AB3A-87FD51DF237A}"/>
+    <hyperlink ref="C113" r:id="rId12" xr:uid="{014553BA-CBF1-FE4A-87E7-B8B1B2766B1A}"/>
+    <hyperlink ref="C112" r:id="rId13" xr:uid="{DE9ED0B0-C184-EF48-B45D-8615763D9246}"/>
+    <hyperlink ref="C110" r:id="rId14" xr:uid="{DDCAF55F-3A56-7648-A403-9DD22868993A}"/>
+    <hyperlink ref="C107" r:id="rId15" xr:uid="{0975788A-026A-0D43-9CA1-F881A2C43940}"/>
+    <hyperlink ref="C106" r:id="rId16" xr:uid="{70823F05-9804-BE41-B9EA-EE1005D2B766}"/>
+    <hyperlink ref="B106" r:id="rId17" display="https://stockstock.shop/article/column/534" xr:uid="{7F72562E-6648-1B46-913B-1F1C478C1005}"/>
+    <hyperlink ref="C108" r:id="rId18" xr:uid="{2930E7C3-DD0E-B342-8B7E-37864BF9EC71}"/>
+    <hyperlink ref="C109" r:id="rId19" xr:uid="{3E326A40-FF0F-664C-A218-8EC51B01EEA5}"/>
+    <hyperlink ref="C105" r:id="rId20" xr:uid="{3C99AAA2-7215-4D48-BD62-20859ACA6A23}"/>
+    <hyperlink ref="C104" r:id="rId21" xr:uid="{0D105657-32F1-0547-BD88-9DCCB35E3919}"/>
+    <hyperlink ref="C102" r:id="rId22" xr:uid="{5B825229-65F9-A04B-A356-67230C94C1A2}"/>
+    <hyperlink ref="C103" r:id="rId23" xr:uid="{7BD04CB8-4E7D-4F46-BB08-FAED4AE20DF7}"/>
+    <hyperlink ref="C101" r:id="rId24" xr:uid="{2BDC5616-57FB-414E-A34C-EE214A9EBFB5}"/>
+    <hyperlink ref="C100" r:id="rId25" xr:uid="{23B65F80-30D7-4849-8930-3B52C6076AC8}"/>
+    <hyperlink ref="C99" r:id="rId26" xr:uid="{5BC9700C-8386-3E4D-B294-11DDAC177764}"/>
+    <hyperlink ref="C98" r:id="rId27" xr:uid="{7D6FA905-C39A-AF47-AA0D-3A538A5C8CF6}"/>
+    <hyperlink ref="C97" r:id="rId28" xr:uid="{692070F7-B547-7A4D-91B9-AD9848EF1CEC}"/>
+    <hyperlink ref="C96" r:id="rId29" xr:uid="{C9977497-0C6F-0544-A589-36AC27B1E91B}"/>
+    <hyperlink ref="C89" r:id="rId30" xr:uid="{746F3574-E82C-A945-89EC-F7AB2767BE04}"/>
+    <hyperlink ref="C95" r:id="rId31" xr:uid="{03C48FF3-E6BD-7C49-9BCE-64CD934A7FB9}"/>
+    <hyperlink ref="C91" r:id="rId32" xr:uid="{170BE4B4-BDF8-D94C-861C-DDD85059CBA5}"/>
+    <hyperlink ref="C94" r:id="rId33" xr:uid="{ABA3C3B0-3793-D349-A1A6-D98AC1FABB24}"/>
+    <hyperlink ref="C90" r:id="rId34" xr:uid="{CB82B803-0564-2E40-9682-9358D36C5EAB}"/>
+    <hyperlink ref="C93" r:id="rId35" xr:uid="{AE0D5A49-3B20-E345-AB7C-BFC75555EA4E}"/>
+    <hyperlink ref="C88" r:id="rId36" xr:uid="{B570ECA9-F214-C442-9D84-80A853F86CD0}"/>
+    <hyperlink ref="C92" r:id="rId37" xr:uid="{34836530-868F-0049-9F9C-CF9A0FAB7AC4}"/>
+    <hyperlink ref="C87" r:id="rId38" xr:uid="{4BAA58ED-2C9D-A544-A42F-5568CC0F11C6}"/>
+    <hyperlink ref="C86" r:id="rId39" xr:uid="{68BB19F7-0D55-9047-A58C-3E8EBCBEF44A}"/>
+    <hyperlink ref="C85" r:id="rId40" xr:uid="{02F7120C-62EE-D842-97D8-DBD00E7A20CA}"/>
+    <hyperlink ref="C84" r:id="rId41" xr:uid="{15F65B9A-7CD2-DF47-BB2F-A02FA4E7A6DA}"/>
+    <hyperlink ref="C83" r:id="rId42" xr:uid="{2439CFE6-0195-604F-9CFC-668BB8B702BA}"/>
+    <hyperlink ref="C82" r:id="rId43" xr:uid="{9F962188-90AB-8B46-A744-6A379760A331}"/>
+    <hyperlink ref="C81" r:id="rId44" xr:uid="{6275627E-19CC-0C41-8266-44D93A62B799}"/>
+    <hyperlink ref="C80" r:id="rId45" xr:uid="{74E83B68-C3D9-EF4E-BC5C-C370FCD1B478}"/>
+    <hyperlink ref="C79" r:id="rId46" xr:uid="{5C1AF86C-2696-FB4B-9B4A-1F232E9F108A}"/>
+    <hyperlink ref="C78" r:id="rId47" xr:uid="{CD1DF038-EE0C-C443-8C6F-A40161F20C8B}"/>
+    <hyperlink ref="C77" r:id="rId48" xr:uid="{44131DCE-250D-9941-9B95-9BF014E8A35B}"/>
+    <hyperlink ref="C76" r:id="rId49" xr:uid="{804A2584-D5CD-0649-9BCB-98F0B93036EB}"/>
+    <hyperlink ref="C75" r:id="rId50" xr:uid="{196F1010-4C96-FC43-A5BB-5B98A999BC46}"/>
+    <hyperlink ref="C72" r:id="rId51" xr:uid="{E6E79B67-90F0-6C4C-B8CC-163EBBBBBF16}"/>
+    <hyperlink ref="C74" r:id="rId52" xr:uid="{F7E7D4BF-8E35-D54C-9627-A3D685146DDC}"/>
+    <hyperlink ref="C73" r:id="rId53" xr:uid="{BBBF6767-43DD-2142-9989-86B2A9143EC3}"/>
+    <hyperlink ref="C71" r:id="rId54" xr:uid="{07C8EFE3-4216-F040-A1EC-D19BAD9C5E46}"/>
+    <hyperlink ref="C70" r:id="rId55" xr:uid="{661FC904-92D7-3E41-B68E-391FEB57CFEB}"/>
+    <hyperlink ref="C69" r:id="rId56" xr:uid="{3187072B-03E4-0944-A9FC-18DF50C91949}"/>
+    <hyperlink ref="C68" r:id="rId57" xr:uid="{5ADEB46C-D4D5-394D-8C15-1F5FDCFF0FDB}"/>
+    <hyperlink ref="C4" r:id="rId58" xr:uid="{3E1E6425-369F-FA46-9576-5003CD2EBF12}"/>
+    <hyperlink ref="C10" r:id="rId59" xr:uid="{7EBDDBDE-A8A7-3149-9DC2-2945653D6CC1}"/>
+    <hyperlink ref="C58" r:id="rId60" xr:uid="{D7EFD097-699D-8F40-B5D2-10C87E30B1E2}"/>
+    <hyperlink ref="C53" r:id="rId61" xr:uid="{3BBA3FEF-27DE-9049-8733-9F2F5691BBAE}"/>
+    <hyperlink ref="C6" r:id="rId62" xr:uid="{F5DED565-E4FA-0D46-801E-137C47737144}"/>
+    <hyperlink ref="C57" r:id="rId63" xr:uid="{AF0546E4-D845-4A4D-B5B0-A258A4C7E137}"/>
+    <hyperlink ref="C23" r:id="rId64" xr:uid="{FA9CB6DD-CFC7-7E4B-BDCC-90A43CF1E914}"/>
+    <hyperlink ref="C62" r:id="rId65" xr:uid="{38C88271-E20E-4140-ACAC-961729899701}"/>
+    <hyperlink ref="C36" r:id="rId66" xr:uid="{EB9C9AD8-BF4E-694D-A47D-A9C910A20997}"/>
+    <hyperlink ref="C18" r:id="rId67" xr:uid="{CEDD557B-D952-F740-BD29-BA5907840729}"/>
+    <hyperlink ref="C5" r:id="rId68" xr:uid="{6D85046E-F1D9-174C-97A7-0C298ACDE8F3}"/>
+    <hyperlink ref="C37" r:id="rId69" xr:uid="{8C6D753E-E4CD-694C-89DB-89192F93D213}"/>
+    <hyperlink ref="C54" r:id="rId70" xr:uid="{05B27353-72ED-CA4E-8FDF-E02359DBB2E4}"/>
+    <hyperlink ref="C27" r:id="rId71" xr:uid="{0916CE1A-87FD-004F-9AE5-C2B7097090A8}"/>
+    <hyperlink ref="C42" r:id="rId72" xr:uid="{CDAE186F-B2C6-344D-8F87-6F570DC59920}"/>
+    <hyperlink ref="C16" r:id="rId73" xr:uid="{A60A32F1-F781-3E42-A872-0D1EADF64374}"/>
+    <hyperlink ref="C33" r:id="rId74" xr:uid="{8EA8FDF8-A10D-E343-ADE5-1FA8A21904CC}"/>
+    <hyperlink ref="C38" r:id="rId75" xr:uid="{C0BCD217-EAA9-E141-BF48-111EFCF94D78}"/>
+    <hyperlink ref="C26" r:id="rId76" xr:uid="{0BC3D54A-4B48-054E-9C8C-7E6C9351D832}"/>
+    <hyperlink ref="C25" r:id="rId77" xr:uid="{3077E72C-B664-0840-8015-D35EE606CD94}"/>
+    <hyperlink ref="C65" r:id="rId78" xr:uid="{75D7B925-2981-3145-B60E-BC2A03B5F12D}"/>
+    <hyperlink ref="C67" r:id="rId79" xr:uid="{8A2631E8-64A2-0E4F-BDDB-5C4B7964C253}"/>
+    <hyperlink ref="C13" r:id="rId80" xr:uid="{BDE99FAF-EFE2-CA4E-8476-1B1616B1D6FF}"/>
+    <hyperlink ref="C24" r:id="rId81" xr:uid="{DD41772E-A6DD-6F4E-BD8B-9E53A228DD97}"/>
+    <hyperlink ref="C22" r:id="rId82" xr:uid="{8EB08564-27C9-5F4D-A9E1-56B0F98D7606}"/>
+    <hyperlink ref="C9" r:id="rId83" xr:uid="{13ADD693-9D86-F947-9EDC-34E525C2B15F}"/>
+    <hyperlink ref="C44" r:id="rId84" xr:uid="{FB84A364-9E2F-684C-BA11-6E384CCF40E9}"/>
+    <hyperlink ref="C59" r:id="rId85" xr:uid="{315E6360-AA21-9A4E-997C-98457BE3FE7F}"/>
+    <hyperlink ref="C7" r:id="rId86" xr:uid="{0D5AE45D-6069-D54D-9485-E9702E45544E}"/>
+    <hyperlink ref="C48" r:id="rId87" xr:uid="{029FC23B-6F08-3A48-AF04-C78E3CA3843F}"/>
+    <hyperlink ref="C52" r:id="rId88" xr:uid="{6677694D-A4CA-964C-A361-9FBF875027A1}"/>
+    <hyperlink ref="C31" r:id="rId89" xr:uid="{7EF3467A-76CD-FE4E-94F4-40CA00263B0C}"/>
+    <hyperlink ref="C63" r:id="rId90" xr:uid="{B1606572-B661-0E4F-BD35-BE357361B010}"/>
+    <hyperlink ref="C61" r:id="rId91" xr:uid="{301C0AC0-D49A-414A-A00E-57E1D39757E0}"/>
+    <hyperlink ref="C11" r:id="rId92" xr:uid="{3C98BFA6-F3E8-9E4E-9D57-83D1E40D21AF}"/>
+    <hyperlink ref="C21" r:id="rId93" xr:uid="{6EE7EAE5-A221-CA47-8F65-F80DD113A6A3}"/>
+    <hyperlink ref="C60" r:id="rId94" xr:uid="{93539EE0-5055-6A4E-BD11-13416603FD61}"/>
+    <hyperlink ref="C8" r:id="rId95" xr:uid="{2CA7021B-62E9-424D-931C-167B0753AEDC}"/>
+    <hyperlink ref="C15" r:id="rId96" xr:uid="{C6AE0843-8909-DC47-9541-BEBB36C04120}"/>
+    <hyperlink ref="C28" r:id="rId97" xr:uid="{F2CCB073-4E91-AD47-AFB3-240E2F577194}"/>
+    <hyperlink ref="C55" r:id="rId98" xr:uid="{3D55BACA-B1B2-BF43-B359-091B56BFB9A4}"/>
+    <hyperlink ref="C50" r:id="rId99" xr:uid="{34FF3F3D-D34E-1A48-B226-87831A243CB9}"/>
+    <hyperlink ref="C12" r:id="rId100" xr:uid="{64E57C5A-5747-0A4C-946D-C4DE6E02B559}"/>
+    <hyperlink ref="C29" r:id="rId101" xr:uid="{CD91B7C0-4CAD-C74C-A929-FFE4BD73A34D}"/>
+    <hyperlink ref="C20" r:id="rId102" xr:uid="{F85337D4-21FF-8F4F-86FD-1EBDF9D6FA4B}"/>
+    <hyperlink ref="C64" r:id="rId103" xr:uid="{3D070113-1AC9-6742-96C6-A1AB666ECDF5}"/>
+    <hyperlink ref="C43" r:id="rId104" xr:uid="{A5BA0B05-5C7A-5046-8FFE-FD96DFB8C527}"/>
+    <hyperlink ref="C49" r:id="rId105" xr:uid="{A13B7CE8-4F5C-D146-AFC4-A6BD4B5D2A83}"/>
+    <hyperlink ref="C66" r:id="rId106" xr:uid="{C01BE5E1-F0A1-BB4F-9CC7-AD147EFD56E1}"/>
+    <hyperlink ref="C30" r:id="rId107" xr:uid="{BEB53766-ED9C-4445-9A05-AFF3EC82922B}"/>
+    <hyperlink ref="C51" r:id="rId108" xr:uid="{648388FB-66BE-8742-892A-AC61E0DD6BC3}"/>
+    <hyperlink ref="C45" r:id="rId109" xr:uid="{A22BB0E6-86B9-884F-B631-92DF3C5CBB52}"/>
+    <hyperlink ref="C32" r:id="rId110" xr:uid="{433FFF73-9772-2443-A668-4E190F20C4D8}"/>
+    <hyperlink ref="C56" r:id="rId111" xr:uid="{773B1472-327F-3743-8DD7-6EE5DFA11702}"/>
+    <hyperlink ref="C41" r:id="rId112" xr:uid="{DCE20347-A1F6-A149-A54C-902C0272078F}"/>
+    <hyperlink ref="C34" r:id="rId113" xr:uid="{5D2BB5F5-4948-CC41-8851-8E16A199FAED}"/>
+    <hyperlink ref="C17" r:id="rId114" xr:uid="{86FCE1E5-C5A4-8E40-8A52-769C22D9E232}"/>
+    <hyperlink ref="C40" r:id="rId115" xr:uid="{E8EC15D0-5D6B-F641-9645-8BD1E6F30EFA}"/>
+    <hyperlink ref="C19" r:id="rId116" xr:uid="{AFAFFAA1-E96C-FA44-A4ED-892A9F5DA531}"/>
+    <hyperlink ref="C47" r:id="rId117" xr:uid="{20290D87-315B-E04C-BD9B-243FC9A3E824}"/>
+    <hyperlink ref="C14" r:id="rId118" xr:uid="{C1D746D8-AA53-604E-8F67-5DD741F7668B}"/>
+    <hyperlink ref="C35" r:id="rId119" xr:uid="{8C9C51CA-4E1E-EC4D-B953-0815D6D16437}"/>
+    <hyperlink ref="C46" r:id="rId120" xr:uid="{ADAB8313-DB3A-F34C-8EB3-273C708ADC94}"/>
+    <hyperlink ref="C39" r:id="rId121" xr:uid="{3B7B541C-3D22-3844-A802-BE6E7EA880AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
